--- a/Lab10_DeploymentDiagram.xlsx
+++ b/Lab10_DeploymentDiagram.xlsx
@@ -70,14 +70,14 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>189867</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>325404</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>104119</xdr:rowOff>
+      <xdr:rowOff>157515</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -91,7 +91,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5066667" cy="5247619"/>
+          <a:ext cx="5819048" cy="5228571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -393,7 +393,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="142" zoomScaleNormal="100" zoomScaleSheetLayoutView="142" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
